--- a/data/data_monitoreo_viviate.xlsx
+++ b/data/data_monitoreo_viviate.xlsx
@@ -452,47 +452,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RUIZ CARRASCO HILLARY SAMANTHA</t>
+          <t>ESPINOZA GUZMAN MAYRA LOURDES</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESPINOZA GUZMAN MAYRA LOURDES</t>
+          <t>RUIZ CARRASCO HILLARY SAMANTHA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FIESTAS PERICHE VIVIANA LISSETH</t>
+          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
+          <t>FIESTAS PERICHE VIVIANA LISSETH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -512,57 +512,57 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GIRON SILUPU JUAN FRANCISCO</t>
+          <t>PRADO ACARO VANESSA PAOLA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JIMENEZ GUERRERO JUAN RICARDO</t>
+          <t>GIRON SILUPU JUAN FRANCISCO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRADO ACARO VANESSA PAOLA</t>
+          <t>PALMA CARMENES DE MENA MERCEDES EVERJISTA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PAIVA GARCIA DANIELA MILEYDI</t>
+          <t>JIMENEZ GUERRERO JUAN RICARDO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PALMA CARMENES DE MENA MERCEDES EVERJISTA</t>
+          <t>PAIVA GARCIA DANIELA MILEYDI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_viviate.xlsx
+++ b/data/data_monitoreo_viviate.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
@@ -462,27 +462,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RUIZ CARRASCO HILLARY SAMANTHA</t>
+          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
+          <t>RUIZ CARRASCO HILLARY SAMANTHA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -522,27 +522,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GIRON SILUPU JUAN FRANCISCO</t>
+          <t>PALMA CARMENES DE MENA MERCEDES EVERJISTA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PALMA CARMENES DE MENA MERCEDES EVERJISTA</t>
+          <t>GIRON SILUPU JUAN FRANCISCO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_viviate.xlsx
+++ b/data/data_monitoreo_viviate.xlsx
@@ -452,27 +452,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ESPINOZA GUZMAN MAYRA LOURDES</t>
+          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
+          <t>ESPINOZA GUZMAN MAYRA LOURDES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_viviate.xlsx
+++ b/data/data_monitoreo_viviate.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">

--- a/data/data_monitoreo_viviate.xlsx
+++ b/data/data_monitoreo_viviate.xlsx
@@ -452,37 +452,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
+          <t>ESPINOZA GUZMAN MAYRA LOURDES</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ESPINOZA GUZMAN MAYRA LOURDES</t>
+          <t>RUIZ CARRASCO HILLARY SAMANTHA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RUIZ CARRASCO HILLARY SAMANTHA</t>
+          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -502,57 +502,57 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PAIVA PINDAY ALICIA</t>
+          <t>PRADO ACARO VANESSA PAOLA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRADO ACARO VANESSA PAOLA</t>
+          <t>PALMA CARMENES DE MENA MERCEDES EVERJISTA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PALMA CARMENES DE MENA MERCEDES EVERJISTA</t>
+          <t>PAIVA PINDAY ALICIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GIRON SILUPU JUAN FRANCISCO</t>
+          <t>JIMENEZ GUERRERO JUAN RICARDO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JIMENEZ GUERRERO JUAN RICARDO</t>
+          <t>GIRON SILUPU JUAN FRANCISCO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_viviate.xlsx
+++ b/data/data_monitoreo_viviate.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -472,27 +472,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
+          <t>FIESTAS PERICHE VIVIANA LISSETH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FIESTAS PERICHE VIVIANA LISSETH</t>
+          <t>CHUNGA DE LA CRUZ ROSA LILIANA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
@@ -522,27 +522,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PAIVA PINDAY ALICIA</t>
+          <t>JIMENEZ GUERRERO JUAN RICARDO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JIMENEZ GUERRERO JUAN RICARDO</t>
+          <t>PAIVA PINDAY ALICIA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
